--- a/Data/hamster.xlsx
+++ b/Data/hamster.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://svgs-my.sharepoint.com/personal/tylera_svgs_k12_va_us/Documents/Math Modeling/My Course/8 - Differential Equations/MATLAB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Anthony\Documents\GitHub\svgsstats.github.io\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4979FAD-113A-428A-8A1A-454FC5FB8278}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76806BB-AFD6-44A2-92A9-38814C684253}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{44F549C9-EF47-4EB9-BA43-255CA6D6A108}"/>
   </bookViews>
@@ -392,8 +392,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9183298D-7F2C-43DA-9F64-42580649DD88}">
   <dimension ref="A1:B46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -648,7 +648,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>28.5</v>
+        <v>38.5</v>
       </c>
       <c r="B32">
         <v>6.8971</v>
@@ -772,6 +772,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D814AB0D3CF94648B6D3B44EE084FEAE" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec893ef4567a08da4f97784ced08f248">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="cf242e42-2c1e-43b0-aa32-5ed1580b97a8" xmlns:ns4="12abb0e4-5205-46fc-9c3e-aa92748f35c2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c1113f2109e4e8d416d3131b9058b7e" ns3:_="" ns4:_="">
     <xsd:import namespace="cf242e42-2c1e-43b0-aa32-5ed1580b97a8"/>
@@ -994,15 +1003,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1010,6 +1010,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C34BC79D-6A79-4EA0-A75C-329F82420017}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{217AD7D0-5B31-4F6D-A8A3-5A99FE174067}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1028,14 +1036,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C34BC79D-6A79-4EA0-A75C-329F82420017}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F81CD215-3068-484C-9DD7-827686EB3DBD}">
   <ds:schemaRefs>
